--- a/CashFlow/WHR_cashflow.xlsx
+++ b/CashFlow/WHR_cashflow.xlsx
@@ -74,9 +74,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="28.6"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="16.5"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="15.400000000000002"/>
@@ -770,19 +770,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>9002000000.0</v>
+        <v>112000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>9075000000.0</v>
+        <v>241000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>7374000000.0</v>
+        <v>644000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>5207000000.0</v>
+        <v>758000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2979000000.0</v>
+        <v>233000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-39000000.0</v>
@@ -1024,19 +1024,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>770000000.0</v>
+        <v>17014000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>341000000.0</v>
+        <v>16406000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>31000000.0</v>
+        <v>11765000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-564000000.0</v>
+        <v>7811000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>230000000.0</v>
+        <v>4539000000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>165000000.0</v>
